--- a/data/trans_orig/P14B33-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B33-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7398325-DCB7-4E85-A5CA-88743216B07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0779ADA7-4989-41C3-881F-9F041D796DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{728861D0-DCCB-47EF-AD31-4FAC326D8492}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB6D9B1B-C9C0-4107-9854-12354FBB6D42}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -162,16 +162,16 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>54,36%</t>
+    <t>55,35%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>61,54%</t>
@@ -183,16 +183,16 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>45,64%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4DCCE1-CCDB-4DDE-AB4A-6645D2A14E59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579EDFE4-3858-4474-A5C3-9F58257CBD2B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2099,7 +2099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DEDB73-9163-4831-8980-CBF4ED0638FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941ADE27-DF7D-4EAE-8CD3-3F3BDB565838}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B33-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B33-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0779ADA7-4989-41C3-881F-9F041D796DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A947C345-6F20-4D54-BC63-522A34899D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB6D9B1B-C9C0-4107-9854-12354FBB6D42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82476AA4-D101-4CC1-BC28-250368F47B71}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="62">
   <si>
     <t>Población cuya esterilidad le limita en 2012 (Tasa respuesta: 0,2%)</t>
   </si>
@@ -162,7 +162,7 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>55,35%</t>
+    <t>62,88%</t>
   </si>
   <si>
     <t>22,49%</t>
@@ -171,7 +171,7 @@
     <t>6,85%</t>
   </si>
   <si>
-    <t>52,42%</t>
+    <t>53,44%</t>
   </si>
   <si>
     <t>61,54%</t>
@@ -183,13 +183,13 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>44,65%</t>
+    <t>37,12%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>47,58%</t>
+    <t>46,56%</t>
   </si>
   <si>
     <t>93,15%</t>
@@ -198,7 +198,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya esterilidad le limita en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población cuya esterilidad le limita en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>31,73%</t>
@@ -207,28 +207,22 @@
     <t>23,42%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
     <t>68,27%</t>
   </si>
   <si>
     <t>76,58%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>80,38%</t>
+    <t>77,78%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>19,62%</t>
+    <t>22,22%</t>
   </si>
 </sst>
 </file>
@@ -640,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579EDFE4-3858-4474-A5C3-9F58257CBD2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D822B3-6F2A-46B9-8DC0-0F35024CFD5B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2099,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941ADE27-DF7D-4EAE-8CD3-3F3BDB565838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04D1CCD-09A1-4E18-9575-3EDD11935B3C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,7 +3087,7 @@
         <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,7 +3102,7 @@
         <v>1962</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
@@ -3138,10 +3132,10 @@
         <v>2982</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -3379,13 +3373,13 @@
         <v>912</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,7 +3394,7 @@
         <v>1962</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>14</v>
@@ -3430,10 +3424,10 @@
         <v>4002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>17</v>
